--- a/fia/20210608/doc/Teste-de-Hipotese Modificado.xlsx
+++ b/fia/20210608/doc/Teste-de-Hipotese Modificado.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210608\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210608\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BDF9F8-1801-460D-8211-775902D43DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653DDA0F-9BBE-4984-8CFD-A94ED5B680E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-465" windowWidth="29040" windowHeight="15990" tabRatio="749" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intervalo_Confiança=&gt;" sheetId="25" r:id="rId1"/>
@@ -6580,7 +6580,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1398933</xdr:colOff>
+      <xdr:colOff>1132233</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -6622,8 +6622,8 @@
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>130452</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>606702</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>67472</xdr:rowOff>
     </xdr:to>
@@ -7044,7 +7044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -7056,7 +7056,9 @@
     <col min="4" max="4" width="24.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="13"/>
     <col min="6" max="6" width="18.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="13"/>
+    <col min="7" max="13" width="9.140625" style="13"/>
+    <col min="14" max="14" width="21" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:13" ht="26.25">
@@ -7681,7 +7683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D13:K13"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -7987,7 +7991,7 @@
   <dimension ref="B1:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C1:C1048576"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8271,30 +8275,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.5703125" style="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="1"/>
     <col min="17" max="17" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="9.140625" style="1"/>
     <col min="20" max="20" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="1"/>
@@ -8352,16 +8356,22 @@
       <c r="E3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>0.93</v>
+      </c>
       <c r="G3" s="14"/>
       <c r="H3" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="I3" s="8">
+        <v>0.05</v>
+      </c>
       <c r="K3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2"/>
+      <c r="L3" s="2">
+        <v>0.93</v>
+      </c>
       <c r="N3" s="35" t="s">
         <v>39</v>
       </c>
@@ -8392,14 +8402,14 @@
       </c>
       <c r="I4" s="48">
         <f>1-I3</f>
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="16" t="e">
+      <c r="L4" s="16">
         <f>(L3-I8)/(SQRT((I8*(1-I8)/I6)))</f>
-        <v>#DIV/0!</v>
+        <v>3.1622776601683826</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>25</v>
@@ -8435,16 +8445,16 @@
       <c r="H5" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="49" t="e">
+      <c r="I5" s="49">
         <f>NORMSINV(1-I3)</f>
-        <v>#NUM!</v>
+        <v>1.6448536269514715</v>
       </c>
       <c r="K5" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="53" t="e">
+      <c r="L5" s="53">
         <f>1-_xlfn.NORM.S.DIST(L4, TRUE)</f>
-        <v>#DIV/0!</v>
+        <v>7.8270112900125088E-4</v>
       </c>
       <c r="N5" s="35" t="s">
         <v>57</v>
@@ -8473,7 +8483,9 @@
       <c r="H6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2">
+        <v>1000</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -8502,7 +8514,7 @@
       </c>
       <c r="I7" s="50">
         <f>I8*(1-I8)</f>
-        <v>0</v>
+        <v>8.9999999999999983E-2</v>
       </c>
       <c r="N7" s="35" t="s">
         <v>61</v>
@@ -8524,7 +8536,9 @@
       <c r="H8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2">
+        <v>0.9</v>
+      </c>
       <c r="N8" s="35" t="s">
         <v>62</v>
       </c>
